--- a/Textrating.xlsx
+++ b/Textrating.xlsx
@@ -1058,19 +1058,19 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="51.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="51.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="51.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="51.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.01"/>
   </cols>
   <sheetData>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="942.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>45</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="3276.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>45</v>
       </c>
